--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UshaAtteti-Kairos\Downloads\MinnwestBank\MoonLightFramework\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YaswanthKumarGollapo\eclipse-workspace\MoonLightFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE25AC18-18CA-4757-BE21-56BE5D1F9888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92FD83F-4426-4DBD-B97E-64164159F703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>TCID</t>
   </si>
@@ -60,28 +60,10 @@
     <t>Transfer_login</t>
   </si>
   <si>
-    <t>Vamsy@524</t>
-  </si>
-  <si>
-    <t>vamsyaddala</t>
-  </si>
-  <si>
     <t>Aswiniroy@7</t>
   </si>
   <si>
     <t>Mutiple_login_Cred</t>
-  </si>
-  <si>
-    <t>saikirana</t>
-  </si>
-  <si>
-    <t>Minnwest@143</t>
-  </si>
-  <si>
-    <t>rabbit@12</t>
-  </si>
-  <si>
-    <t>C1arrot2$</t>
   </si>
 </sst>
 </file>
@@ -473,7 +455,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -487,10 +469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270E7EDE-4BCF-4C5E-99ED-75B7308590A4}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,28 +503,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{FB031D3C-A130-42BB-9844-E3D42F72DB27}"/>
@@ -554,10 +514,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA4162E-4A41-4F01-B1DE-3A89216F4315}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,61 +536,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{0D5D2D56-12FD-425A-9F92-B7D3698BB8F4}"/>
-    <hyperlink ref="B6" r:id="rId2" display="Minnwest@143" xr:uid="{FD61E8C9-A900-4767-815B-80D6DC821833}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{620F7034-16EB-4D45-9EC7-769D46C99FBB}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{129799D2-E107-41A1-89BA-857001F1FC4A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3AC386-86BF-4FA2-BFDF-0D06C1C72FD3}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,26 +571,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
